--- a/data/223/SIDRA/old/Volume and nominal revenue indices from sales in retail trade by types of index.xlsx
+++ b/data/223/SIDRA/old/Volume and nominal revenue indices from sales in retail trade by types of index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>Tabela 3416 - Índices de volume e de receita nominal de vendas no comércio varejista, por tipos de índice (2014 = 100)</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>setembro 2021</t>
+  </si>
+  <si>
+    <t>outubro 2021</t>
   </si>
   <si>
     <t>Índice base fixa (2014=100)</t>
@@ -937,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JC11"/>
+  <dimension ref="A1:JD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,7 +948,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="263" width="10"/>
+    <col min="1" max="264" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1738,6 +1741,9 @@
       <c r="JC1" s="1">
         <v/>
       </c>
+      <c r="JD1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -2529,6 +2535,9 @@
       <c r="JC2" s="2">
         <v/>
       </c>
+      <c r="JD2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -3320,6 +3329,9 @@
       <c r="JC3" s="2">
         <v/>
       </c>
+      <c r="JD3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -4111,13 +4123,16 @@
       <c r="JC4" t="s" s="2">
         <v>265</v>
       </c>
+      <c r="JD4" t="s" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4">
         <v>46.0</v>
@@ -4900,7 +4915,10 @@
         <v>97.0</v>
       </c>
       <c r="JC5" s="4">
-        <v>92.7</v>
+        <v>93.0</v>
+      </c>
+      <c r="JD5" s="4">
+        <v>97.3</v>
       </c>
     </row>
     <row r="6">
@@ -4908,7 +4926,7 @@
         <v/>
       </c>
       <c r="B6" t="s" s="3">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C6" s="4">
         <v>50.0</v>
@@ -5691,7 +5709,10 @@
         <v>87.6</v>
       </c>
       <c r="JC6" s="4">
-        <v>83.7</v>
+        <v>83.5</v>
+      </c>
+      <c r="JD6" s="4">
+        <v>82.3</v>
       </c>
     </row>
     <row r="7">
@@ -5699,7 +5720,7 @@
         <v/>
       </c>
       <c r="B7" t="s" s="3">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4">
         <v>45.4</v>
@@ -6482,15 +6503,18 @@
         <v>100.2</v>
       </c>
       <c r="JC7" s="4">
-        <v>93.9</v>
+        <v>94.8</v>
+      </c>
+      <c r="JD7" s="4">
+        <v>99.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C8" s="4">
         <v>49.5</v>
@@ -6901,7 +6925,7 @@
         <v>85.4</v>
       </c>
       <c r="EI8" s="4">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="EJ8" s="4">
         <v>86.4</v>
@@ -6979,7 +7003,7 @@
         <v>96.9</v>
       </c>
       <c r="FI8" s="4">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="FJ8" s="4">
         <v>99.8</v>
@@ -7003,7 +7027,7 @@
         <v>100.5</v>
       </c>
       <c r="FQ8" s="4">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="FR8" s="4">
         <v>99.9</v>
@@ -7015,7 +7039,7 @@
         <v>99.3</v>
       </c>
       <c r="FU8" s="4">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="FV8" s="4">
         <v>100.1</v>
@@ -7042,7 +7066,7 @@
         <v>98.7</v>
       </c>
       <c r="GD8" s="4">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="GE8" s="4">
         <v>96.9</v>
@@ -7090,7 +7114,7 @@
         <v>89.2</v>
       </c>
       <c r="GT8" s="4">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="GU8" s="4">
         <v>87.8</v>
@@ -7105,7 +7129,7 @@
         <v>87.3</v>
       </c>
       <c r="GY8" s="4">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="GZ8" s="4">
         <v>91.3</v>
@@ -7114,7 +7138,7 @@
         <v>90.4</v>
       </c>
       <c r="HB8" s="4">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="HC8" s="4">
         <v>91.5</v>
@@ -7135,7 +7159,7 @@
         <v>91.9</v>
       </c>
       <c r="HI8" s="4">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="HJ8" s="4">
         <v>92.0</v>
@@ -7153,16 +7177,16 @@
         <v>95.6</v>
       </c>
       <c r="HO8" s="4">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="HP8" s="4">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="HQ8" s="4">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="HR8" s="4">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="HS8" s="4">
         <v>93.3</v>
@@ -7174,28 +7198,28 @@
         <v>95.6</v>
       </c>
       <c r="HV8" s="4">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="HW8" s="4">
         <v>95.0</v>
       </c>
       <c r="HX8" s="4">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="HY8" s="4">
         <v>96.6</v>
       </c>
       <c r="HZ8" s="4">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="IA8" s="4">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="IB8" s="4">
         <v>93.6</v>
       </c>
       <c r="IC8" s="4">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="ID8" s="4">
         <v>94.3</v>
@@ -7210,7 +7234,7 @@
         <v>97.5</v>
       </c>
       <c r="IH8" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="II8" s="4">
         <v>96.6</v>
@@ -7225,34 +7249,34 @@
         <v>78.3</v>
       </c>
       <c r="IM8" s="4">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="IN8" s="4">
         <v>94.0</v>
       </c>
       <c r="IO8" s="4">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="IP8" s="4">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="IQ8" s="4">
         <v>102.4</v>
       </c>
       <c r="IR8" s="4">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="IS8" s="4">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="IT8" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="IU8" s="4">
         <v>97.0</v>
       </c>
       <c r="IV8" s="4">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="IW8" s="4">
         <v>96.1</v>
@@ -7261,7 +7285,7 @@
         <v>98.4</v>
       </c>
       <c r="IY8" s="4">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="IZ8" s="4">
         <v>99.2</v>
@@ -7270,10 +7294,13 @@
         <v>102.3</v>
       </c>
       <c r="JB8" s="4">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="JC8" s="4">
-        <v>96.6</v>
+        <v>97.0</v>
+      </c>
+      <c r="JD8" s="4">
+        <v>96.9</v>
       </c>
     </row>
     <row r="9">
@@ -7281,7 +7308,7 @@
         <v/>
       </c>
       <c r="B9" t="s" s="3">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C9" s="4">
         <v>53.8</v>
@@ -7344,10 +7371,10 @@
         <v>56.5</v>
       </c>
       <c r="W9" s="4">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="X9" s="4">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="Y9" s="4">
         <v>56.1</v>
@@ -7362,7 +7389,7 @@
         <v>56.7</v>
       </c>
       <c r="AC9" s="4">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
       <c r="AD9" s="4">
         <v>57.4</v>
@@ -7371,7 +7398,7 @@
         <v>58.3</v>
       </c>
       <c r="AF9" s="4">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="AG9" s="4">
         <v>56.9</v>
@@ -7383,7 +7410,7 @@
         <v>56.2</v>
       </c>
       <c r="AJ9" s="4">
-        <v>57.0</v>
+        <v>56.9</v>
       </c>
       <c r="AK9" s="4">
         <v>56.6</v>
@@ -7401,7 +7428,7 @@
         <v>52.9</v>
       </c>
       <c r="AP9" s="4">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="AQ9" s="4">
         <v>49.7</v>
@@ -7440,10 +7467,10 @@
         <v>56.0</v>
       </c>
       <c r="BC9" s="4">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="BD9" s="4">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="BE9" s="4">
         <v>56.0</v>
@@ -7461,10 +7488,10 @@
         <v>55.8</v>
       </c>
       <c r="BJ9" s="4">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="BK9" s="4">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="BL9" s="4">
         <v>56.8</v>
@@ -7482,7 +7509,7 @@
         <v>59.5</v>
       </c>
       <c r="BQ9" s="4">
-        <v>59.8</v>
+        <v>59.9</v>
       </c>
       <c r="BR9" s="4">
         <v>59.3</v>
@@ -7497,7 +7524,7 @@
         <v>59.0</v>
       </c>
       <c r="BV9" s="4">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="BW9" s="4">
         <v>60.4</v>
@@ -7524,7 +7551,7 @@
         <v>62.7</v>
       </c>
       <c r="CE9" s="4">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="CF9" s="4">
         <v>64.2</v>
@@ -7548,7 +7575,7 @@
         <v>65.2</v>
       </c>
       <c r="CM9" s="4">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="CN9" s="4">
         <v>65.4</v>
@@ -7572,7 +7599,7 @@
         <v>69.0</v>
       </c>
       <c r="CU9" s="4">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="CV9" s="4">
         <v>67.4</v>
@@ -7584,16 +7611,16 @@
         <v>71.1</v>
       </c>
       <c r="CY9" s="4">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="CZ9" s="4">
         <v>71.4</v>
       </c>
       <c r="DA9" s="4">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="DB9" s="4">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="DC9" s="4">
         <v>72.0</v>
@@ -7617,10 +7644,10 @@
         <v>74.2</v>
       </c>
       <c r="DJ9" s="4">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="DK9" s="4">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="DL9" s="4">
         <v>74.8</v>
@@ -7641,7 +7668,7 @@
         <v>78.3</v>
       </c>
       <c r="DR9" s="4">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="DS9" s="4">
         <v>79.8</v>
@@ -7653,25 +7680,25 @@
         <v>80.5</v>
       </c>
       <c r="DV9" s="4">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DW9" s="4">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="DX9" s="4">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="DY9" s="4">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DZ9" s="4">
         <v>83.9</v>
       </c>
       <c r="EA9" s="4">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="EB9" s="4">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="EC9" s="4">
         <v>85.0</v>
@@ -7686,16 +7713,16 @@
         <v>87.7</v>
       </c>
       <c r="EG9" s="4">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="EH9" s="4">
         <v>88.8</v>
       </c>
       <c r="EI9" s="4">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="EJ9" s="4">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="EK9" s="4">
         <v>88.3</v>
@@ -7722,13 +7749,13 @@
         <v>90.5</v>
       </c>
       <c r="ES9" s="4">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="ET9" s="4">
         <v>91.8</v>
       </c>
       <c r="EU9" s="4">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="EV9" s="4">
         <v>93.1</v>
@@ -7746,31 +7773,31 @@
         <v>92.9</v>
       </c>
       <c r="FA9" s="4">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="FB9" s="4">
         <v>94.8</v>
       </c>
       <c r="FC9" s="4">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="FD9" s="4">
         <v>94.6</v>
       </c>
       <c r="FE9" s="4">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="FF9" s="4">
         <v>96.5</v>
       </c>
       <c r="FG9" s="4">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="FH9" s="4">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="FI9" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="FJ9" s="4">
         <v>98.5</v>
@@ -7779,16 +7806,16 @@
         <v>98.0</v>
       </c>
       <c r="FL9" s="4">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="FM9" s="4">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="FN9" s="4">
         <v>98.5</v>
       </c>
       <c r="FO9" s="4">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="FP9" s="4">
         <v>97.7</v>
@@ -7797,19 +7824,19 @@
         <v>98.2</v>
       </c>
       <c r="FR9" s="4">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="FS9" s="4">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="FT9" s="4">
         <v>100.5</v>
       </c>
       <c r="FU9" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="FV9" s="4">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="FW9" s="4">
         <v>101.5</v>
@@ -7836,13 +7863,13 @@
         <v>97.5</v>
       </c>
       <c r="GE9" s="4">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="GF9" s="4">
         <v>96.1</v>
       </c>
       <c r="GG9" s="4">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="GH9" s="4">
         <v>95.4</v>
@@ -7857,10 +7884,10 @@
         <v>95.3</v>
       </c>
       <c r="GL9" s="4">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="GM9" s="4">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="GN9" s="4">
         <v>91.4</v>
@@ -7869,16 +7896,16 @@
         <v>90.9</v>
       </c>
       <c r="GP9" s="4">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="GQ9" s="4">
         <v>89.2</v>
       </c>
       <c r="GR9" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="GS9" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="GT9" s="4">
         <v>87.9</v>
@@ -7896,7 +7923,7 @@
         <v>87.5</v>
       </c>
       <c r="GY9" s="4">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="GZ9" s="4">
         <v>88.6</v>
@@ -7908,34 +7935,34 @@
         <v>87.2</v>
       </c>
       <c r="HC9" s="4">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="HD9" s="4">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="HE9" s="4">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="HF9" s="4">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="HG9" s="4">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="HH9" s="4">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="HI9" s="4">
         <v>86.9</v>
       </c>
       <c r="HJ9" s="4">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="HK9" s="4">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="HL9" s="4">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="HM9" s="4">
         <v>90.1</v>
@@ -7944,127 +7971,130 @@
         <v>90.5</v>
       </c>
       <c r="HO9" s="4">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="HP9" s="4">
         <v>87.0</v>
       </c>
       <c r="HQ9" s="4">
-        <v>85.0</v>
+        <v>84.8</v>
       </c>
       <c r="HR9" s="4">
-        <v>88.0</v>
+        <v>87.7</v>
       </c>
       <c r="HS9" s="4">
-        <v>87.1</v>
+        <v>86.8</v>
       </c>
       <c r="HT9" s="4">
-        <v>87.1</v>
+        <v>87.6</v>
       </c>
       <c r="HU9" s="4">
-        <v>90.9</v>
+        <v>91.1</v>
       </c>
       <c r="HV9" s="4">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="HW9" s="4">
         <v>88.6</v>
       </c>
       <c r="HX9" s="4">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="HY9" s="4">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="HZ9" s="4">
         <v>86.8</v>
       </c>
       <c r="IA9" s="4">
-        <v>85.8</v>
+        <v>85.6</v>
       </c>
       <c r="IB9" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="IC9" s="4">
-        <v>87.2</v>
+        <v>86.9</v>
       </c>
       <c r="ID9" s="4">
-        <v>87.8</v>
+        <v>87.4</v>
       </c>
       <c r="IE9" s="4">
-        <v>89.3</v>
+        <v>88.7</v>
       </c>
       <c r="IF9" s="4">
-        <v>89.1</v>
+        <v>90.0</v>
       </c>
       <c r="IG9" s="4">
-        <v>90.0</v>
+        <v>90.2</v>
       </c>
       <c r="IH9" s="4">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="II9" s="4">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="IJ9" s="4">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="IK9" s="4">
         <v>86.3</v>
       </c>
       <c r="IL9" s="4">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="IM9" s="4">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="IN9" s="4">
-        <v>86.9</v>
+        <v>86.6</v>
       </c>
       <c r="IO9" s="4">
-        <v>91.3</v>
+        <v>90.9</v>
       </c>
       <c r="IP9" s="4">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
       <c r="IQ9" s="4">
-        <v>93.5</v>
+        <v>92.8</v>
       </c>
       <c r="IR9" s="4">
-        <v>93.6</v>
+        <v>95.1</v>
       </c>
       <c r="IS9" s="4">
-        <v>97.7</v>
+        <v>98.1</v>
       </c>
       <c r="IT9" s="4">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="IU9" s="4">
-        <v>89.0</v>
+        <v>89.2</v>
       </c>
       <c r="IV9" s="4">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="IW9" s="4">
         <v>89.4</v>
       </c>
       <c r="IX9" s="4">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="IY9" s="4">
-        <v>93.0</v>
+        <v>92.6</v>
       </c>
       <c r="IZ9" s="4">
-        <v>90.6</v>
+        <v>90.3</v>
       </c>
       <c r="JA9" s="4">
-        <v>90.6</v>
+        <v>90.1</v>
       </c>
       <c r="JB9" s="4">
-        <v>88.7</v>
+        <v>88.0</v>
       </c>
       <c r="JC9" s="4">
-        <v>88.2</v>
+        <v>87.2</v>
+      </c>
+      <c r="JD9" s="4">
+        <v>85.3</v>
       </c>
     </row>
     <row r="10">
@@ -8072,7 +8102,7 @@
         <v/>
       </c>
       <c r="B10" t="s" s="3">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="4">
         <v>49.2</v>
@@ -8222,7 +8252,7 @@
         <v>48.1</v>
       </c>
       <c r="AZ10" s="4">
-        <v>48.9</v>
+        <v>49.0</v>
       </c>
       <c r="BA10" s="4">
         <v>49.3</v>
@@ -8249,7 +8279,7 @@
         <v>50.5</v>
       </c>
       <c r="BI10" s="4">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="BJ10" s="4">
         <v>52.0</v>
@@ -8291,7 +8321,7 @@
         <v>53.5</v>
       </c>
       <c r="BW10" s="4">
-        <v>54.9</v>
+        <v>55.0</v>
       </c>
       <c r="BX10" s="4">
         <v>52.8</v>
@@ -8303,7 +8333,7 @@
         <v>53.3</v>
       </c>
       <c r="CA10" s="4">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="CB10" s="4">
         <v>53.1</v>
@@ -8414,7 +8444,7 @@
         <v>72.6</v>
       </c>
       <c r="DL10" s="4">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="DM10" s="4">
         <v>74.1</v>
@@ -8501,7 +8531,7 @@
         <v>87.2</v>
       </c>
       <c r="EO10" s="4">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="EP10" s="4">
         <v>88.7</v>
@@ -8564,7 +8594,7 @@
         <v>101.1</v>
       </c>
       <c r="FJ10" s="4">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="FK10" s="4">
         <v>101.7</v>
@@ -8735,7 +8765,7 @@
         <v>97.4</v>
       </c>
       <c r="HO10" s="4">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="HP10" s="4">
         <v>94.4</v>
@@ -8750,13 +8780,13 @@
         <v>95.6</v>
       </c>
       <c r="HT10" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="HU10" s="4">
         <v>97.7</v>
       </c>
       <c r="HV10" s="4">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="HW10" s="4">
         <v>98.0</v>
@@ -8771,7 +8801,7 @@
         <v>97.3</v>
       </c>
       <c r="IA10" s="4">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="IB10" s="4">
         <v>96.1</v>
@@ -8783,16 +8813,16 @@
         <v>97.5</v>
       </c>
       <c r="IE10" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="IF10" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="IG10" s="4">
         <v>99.8</v>
       </c>
       <c r="IH10" s="4">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="II10" s="4">
         <v>99.7</v>
@@ -8807,31 +8837,31 @@
         <v>81.5</v>
       </c>
       <c r="IM10" s="4">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="IN10" s="4">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="IO10" s="4">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="IP10" s="4">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="IQ10" s="4">
+        <v>103.8</v>
+      </c>
+      <c r="IR10" s="4">
         <v>104.0</v>
       </c>
-      <c r="IR10" s="4">
-        <v>104.1</v>
-      </c>
       <c r="IS10" s="4">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="IT10" s="4">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="IU10" s="4">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="IV10" s="4">
         <v>103.4</v>
@@ -8840,27 +8870,30 @@
         <v>101.7</v>
       </c>
       <c r="IX10" s="4">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="IY10" s="4">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="IZ10" s="4">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="JA10" s="4">
-        <v>104.0</v>
+        <v>104.2</v>
       </c>
       <c r="JB10" s="4">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="JC10" s="4">
-        <v>97.5</v>
+        <v>98.2</v>
+      </c>
+      <c r="JD10" s="4">
+        <v>98.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B11" s="2">
         <v/>
@@ -9646,19 +9679,22 @@
         <v/>
       </c>
       <c r="JC11" s="2">
+        <v/>
+      </c>
+      <c r="JD11" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:JC1"/>
-    <mergeCell ref="A2:JC2"/>
+    <mergeCell ref="A1:JD1"/>
+    <mergeCell ref="A2:JD2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:JC3"/>
+    <mergeCell ref="C3:JD3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:JC11"/>
+    <mergeCell ref="A11:JD11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
